--- a/biology/Mycologie/Tylopilus/Tylopilus.xlsx
+++ b/biology/Mycologie/Tylopilus/Tylopilus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tylopilus est un genre de champignons basidiomycètes de la famille des Boletaceae. Il n'existe qu'une espèce en Europe, Tylopilus felleus. Certaines espèces ont été transférées au genre Rubinoboletus et au genre Porphyrellus.
 </t>
@@ -511,7 +523,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tylopilus P. Karsten
 On[Qui ?] y inclut parfois les Porphyrellus, certaines espèces sont transférées aux Rubinoboletus.
@@ -543,7 +557,9 @@
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cuticule sèche, glabre à subtomenteuse. Chair blanche, immuable ou coloration brun pâle, rouge puis noire, ou plus rarement bleu, avec un goût doux ou amer. Hyménium adnexé, chair blanche puis rose de couleur brun violacé à brun rouille à coloration brune. Stipe sec, pruineux à glabre, voire réticulé, de scabres fines[Quoi ?]. Chair rosâtre. Sporée de couleur à brun violacé à brun rouille. Spores lisses, fusiformes. 
 </t>
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Zone tempérée du Nord, Amérique tropicale montagnarde, le nord de l'Amérique du Sud, Asie de l'Est, Asie du Sud, Australie, Nouvelle-Zélande, en Afrique.
 Mycorhizes avec les Pinacées, Fagacées, Bétulacées, Myrtacées, Casuarinacées, les Légumineuses cisalpines[Quoi ?].
@@ -606,9 +624,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (28 octobre 2013)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (28 octobre 2013) :
 Tylopilus acutesquamosus
 Tylopilus alboater
 Tylopilus albofarinaceus
@@ -723,7 +743,7 @@
 Tylopilus viscidichromapes
 Tylopilus williamsii
 Tylopilus zambianus
-Selon Index Fungorum                                      (28 octobre 2013)[2] :
+Selon Index Fungorum                                      (28 octobre 2013) :
 Tylopilus acutesquamosus Singer 1983
 Tylopilus alboater (Schwein.) Murrill 1909
 Tylopilus albofarinaceus (W.F. Chiu) F.L. Tai 1979
@@ -847,7 +867,7 @@
 Tylopilus viscidichromapes Watling &amp; T.H. Li 1999
 Tylopilus williamsii Singer &amp; J. García 1991
 Tylopilus zambianus Watling 1994
-Selon NCBI  (28 octobre 2013)[3] :
+Selon NCBI  (28 octobre 2013) :
 Tylopilus alboater
 Tylopilus appalachiensis
 Tylopilus atronicotianus
